--- a/microPascalCFG-current.xlsx
+++ b/microPascalCFG-current.xlsx
@@ -711,9 +711,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -722,6 +719,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1134,26 +1134,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C113" sqref="C113"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.125" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="65.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="65.875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1162,13 +1162,13 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1181,13 +1181,13 @@
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1200,13 +1200,13 @@
         <f t="shared" ref="B5:B10" si="1">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1219,13 +1219,13 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1238,13 +1238,13 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1257,13 +1257,13 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1295,13 +1295,13 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1314,13 +1314,13 @@
         <f t="shared" ref="B11:B25" si="2">B10+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1333,13 +1333,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1352,13 +1352,13 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1371,13 +1371,13 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1390,13 +1390,13 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1409,13 +1409,13 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1428,13 +1428,13 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1447,13 +1447,13 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1466,13 +1466,13 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1485,13 +1485,13 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1504,13 +1504,13 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1523,13 +1523,13 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -1542,13 +1542,13 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -1561,13 +1561,13 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1580,13 +1580,13 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1599,13 +1599,13 @@
         <f>B25+1</f>
         <v>24</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1618,13 +1618,13 @@
         <f t="shared" ref="B27" si="3">B26+1</f>
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1637,13 +1637,13 @@
         <f t="shared" ref="B28" si="4">B27+1</f>
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1656,13 +1656,13 @@
         <f t="shared" ref="B29" si="5">B28+1</f>
         <v>27</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1675,13 +1675,13 @@
         <f t="shared" ref="B30" si="6">B29+1</f>
         <v>28</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
         <f t="shared" ref="B31" si="7">B30+1</f>
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1713,13 +1713,13 @@
         <f t="shared" ref="B32:B44" si="8">B31+1</f>
         <v>30</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1751,13 +1751,13 @@
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1770,13 +1770,13 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1789,13 +1789,13 @@
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1808,13 +1808,13 @@
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1827,13 +1827,13 @@
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1846,13 +1846,13 @@
         <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1865,13 +1865,13 @@
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1884,13 +1884,13 @@
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1903,13 +1903,13 @@
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1922,13 +1922,13 @@
         <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1941,13 +1941,13 @@
         <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1960,13 +1960,13 @@
         <f>B44+1</f>
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1979,13 +1979,13 @@
         <f t="shared" ref="B46" si="9">B45+1</f>
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1998,13 +1998,13 @@
         <f t="shared" ref="B47" si="10">B46+1</f>
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2017,13 +2017,13 @@
         <f t="shared" ref="B48" si="11">B47+1</f>
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2036,13 +2036,13 @@
         <f t="shared" ref="B49" si="12">B48+1</f>
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2055,13 +2055,13 @@
         <f t="shared" ref="B50" si="13">B49+1</f>
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2074,13 +2074,13 @@
         <f t="shared" ref="B51:B62" si="14">B50+1</f>
         <v>49</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="D51" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2093,13 +2093,13 @@
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2112,13 +2112,13 @@
         <f t="shared" si="14"/>
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2131,13 +2131,13 @@
         <f t="shared" si="14"/>
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2150,13 +2150,13 @@
         <f t="shared" si="14"/>
         <v>53</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2169,13 +2169,13 @@
         <f t="shared" si="14"/>
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2188,13 +2188,13 @@
         <f t="shared" si="14"/>
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2207,13 +2207,13 @@
         <f t="shared" si="14"/>
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2226,13 +2226,13 @@
         <f t="shared" si="14"/>
         <v>57</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2245,13 +2245,13 @@
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2264,13 +2264,13 @@
         <f t="shared" si="14"/>
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2283,13 +2283,13 @@
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E62" s="4" t="s">
+      <c r="D62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2302,13 +2302,13 @@
         <f>B62+1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2321,13 +2321,13 @@
         <f t="shared" ref="B64" si="15">B63+1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2340,13 +2340,13 @@
         <f t="shared" ref="B65" si="16">B64+1</f>
         <v>63</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2359,13 +2359,13 @@
         <f t="shared" ref="B66" si="17">B65+1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2378,13 +2378,13 @@
         <f t="shared" ref="B67" si="18">B66+1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D67" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2397,13 +2397,13 @@
         <f t="shared" ref="B68:B108" si="19">B67+1</f>
         <v>66</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2416,13 +2416,13 @@
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="D69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2435,13 +2435,13 @@
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2454,13 +2454,13 @@
         <f t="shared" si="19"/>
         <v>69</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="D71" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2473,13 +2473,13 @@
         <f t="shared" si="19"/>
         <v>70</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2492,13 +2492,13 @@
         <f t="shared" si="19"/>
         <v>71</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="4" t="s">
+      <c r="D73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2511,13 +2511,13 @@
         <f t="shared" si="19"/>
         <v>72</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2530,13 +2530,13 @@
         <f t="shared" si="19"/>
         <v>73</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D75" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E75" s="4" t="s">
+      <c r="D75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2549,13 +2549,13 @@
         <f t="shared" si="19"/>
         <v>74</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="4" t="s">
+      <c r="D76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2568,13 +2568,13 @@
         <f t="shared" si="19"/>
         <v>75</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2587,13 +2587,13 @@
         <f t="shared" si="19"/>
         <v>76</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2606,13 +2606,13 @@
         <f t="shared" si="19"/>
         <v>77</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2625,13 +2625,13 @@
         <f t="shared" si="19"/>
         <v>78</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="D80" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2644,13 +2644,13 @@
         <f t="shared" si="19"/>
         <v>79</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E81" s="4" t="s">
+      <c r="D81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2663,13 +2663,13 @@
         <f t="shared" si="19"/>
         <v>80</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2682,13 +2682,13 @@
         <f t="shared" si="19"/>
         <v>81</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2701,13 +2701,13 @@
         <f t="shared" si="19"/>
         <v>82</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2720,13 +2720,13 @@
         <f>B84+1</f>
         <v>83</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="D85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2739,13 +2739,13 @@
         <f>B85+1</f>
         <v>84</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="D86" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2758,13 +2758,13 @@
         <f t="shared" si="19"/>
         <v>85</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="4" t="s">
+      <c r="D87" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2777,13 +2777,13 @@
         <f t="shared" si="19"/>
         <v>86</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="4" t="s">
+      <c r="D88" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2796,13 +2796,13 @@
         <f t="shared" si="19"/>
         <v>87</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" s="4" t="s">
+      <c r="D89" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2815,13 +2815,13 @@
         <f t="shared" si="19"/>
         <v>88</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E90" s="4" t="s">
+      <c r="D90" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2834,13 +2834,13 @@
         <f t="shared" si="19"/>
         <v>89</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" s="4" t="s">
+      <c r="D91" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2853,13 +2853,13 @@
         <f t="shared" si="19"/>
         <v>90</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="4" t="s">
+      <c r="D92" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2872,13 +2872,13 @@
         <f t="shared" si="19"/>
         <v>91</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E93" s="4" t="s">
+      <c r="D93" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2891,13 +2891,13 @@
         <f t="shared" si="19"/>
         <v>92</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="5" t="s">
+      <c r="D94" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2910,13 +2910,13 @@
         <f t="shared" si="19"/>
         <v>93</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="D95" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2929,13 +2929,13 @@
         <f t="shared" si="19"/>
         <v>94</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E96" s="5" t="s">
+      <c r="D96" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2948,13 +2948,13 @@
         <f t="shared" si="19"/>
         <v>95</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="5" t="s">
+      <c r="D97" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2967,13 +2967,13 @@
         <f t="shared" si="19"/>
         <v>96</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E98" s="5" t="s">
+      <c r="D98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2986,13 +2986,13 @@
         <f t="shared" si="19"/>
         <v>97</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E99" s="4" t="s">
+      <c r="D99" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3005,13 +3005,13 @@
         <f t="shared" si="19"/>
         <v>98</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E100" s="4" t="s">
+      <c r="D100" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3024,13 +3024,13 @@
         <f t="shared" si="19"/>
         <v>99</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E101" s="4" t="s">
+      <c r="D101" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3043,13 +3043,13 @@
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E102" s="4" t="s">
+      <c r="D102" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3062,13 +3062,13 @@
         <f>B102+1</f>
         <v>101</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E103" s="4" t="s">
+      <c r="D103" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3081,13 +3081,13 @@
         <f t="shared" si="19"/>
         <v>102</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E104" s="4" t="s">
+      <c r="D104" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3100,13 +3100,13 @@
         <f t="shared" si="19"/>
         <v>103</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E105" s="4" t="s">
+      <c r="D105" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3119,13 +3119,13 @@
         <f t="shared" si="19"/>
         <v>104</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E106" s="4" t="s">
+      <c r="D106" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3138,13 +3138,13 @@
         <f t="shared" si="19"/>
         <v>105</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E107" s="4" t="s">
+      <c r="D107" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3157,13 +3157,13 @@
         <f t="shared" si="19"/>
         <v>106</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E108" s="5" t="s">
+      <c r="D108" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E108" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3176,13 +3176,13 @@
         <f t="shared" ref="B109:B118" si="23">B108+1</f>
         <v>107</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E109" s="5" t="s">
+      <c r="D109" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3195,13 +3195,13 @@
         <f t="shared" si="23"/>
         <v>108</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E110" s="5" t="s">
+      <c r="D110" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3214,13 +3214,13 @@
         <f t="shared" si="23"/>
         <v>109</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D111" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E111" s="5" t="s">
+      <c r="D111" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3233,13 +3233,13 @@
         <f t="shared" si="23"/>
         <v>110</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D112" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E112" s="5" t="s">
+      <c r="D112" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3252,13 +3252,13 @@
         <f t="shared" si="23"/>
         <v>111</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E113" s="5" t="s">
+      <c r="D113" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3271,13 +3271,13 @@
         <f t="shared" si="23"/>
         <v>112</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D114" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E114" s="5" t="s">
+      <c r="D114" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3290,13 +3290,13 @@
         <f t="shared" si="23"/>
         <v>113</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E115" s="5" t="s">
+      <c r="D115" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3309,13 +3309,13 @@
         <f t="shared" si="23"/>
         <v>114</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" s="5" t="s">
+      <c r="D116" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3328,13 +3328,13 @@
         <f t="shared" si="23"/>
         <v>115</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E117" s="5" t="s">
+      <c r="D117" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E117" s="4" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3347,13 +3347,13 @@
         <f t="shared" si="23"/>
         <v>116</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E118" s="5" t="s">
+      <c r="D118" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" s="4" t="s">
         <v>74</v>
       </c>
     </row>
